--- a/biology/Zoologie/Glossata/Glossata.xlsx
+++ b/biology/Zoologie/Glossata/Glossata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glossata (les glossates en français) est un des quatre sous-ordres de l'ordre des lépidoptères[1]. Il regroupe les papillons munis d'une trompe enroulable (ou proboscis), ce qui concerne une très large majorité des lépidoptères. Les quelques espèces formant les trois autres sous-ordres (Zeugloptera, Aglossata et Heterobathmiina) sont dotées d'un appareil buccal plus primitif.
-Le sous-ordre des Glossata contient six infra-ordres, classés comme suit[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glossata (les glossates en français) est un des quatre sous-ordres de l'ordre des lépidoptères. Il regroupe les papillons munis d'une trompe enroulable (ou proboscis), ce qui concerne une très large majorité des lépidoptères. Les quelques espèces formant les trois autres sous-ordres (Zeugloptera, Aglossata et Heterobathmiina) sont dotées d'un appareil buccal plus primitif.
+Le sous-ordre des Glossata contient six infra-ordres, classés comme suit :
 infra-ordre Dacnonypha Hinton, 1946
 clade Coelolepida Nielsen &amp; Kristensen, 1996
 infra-ordre Acanthoctesia Minet, 2002
